--- a/Emulate6502/Doc/Opcodes.xlsx
+++ b/Emulate6502/Doc/Opcodes.xlsx
@@ -3320,14 +3320,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N103" sqref="N103"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3404,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v xml:space="preserve">    {"BRK", false, AM_IMP, 7, 0},</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v xml:space="preserve">    {"SLO", true , AM_IIX, 8, 0},</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v xml:space="preserve">    {"ASL", false, AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v xml:space="preserve">    {"SLO", true , AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v xml:space="preserve">    {"PHP", false, AM_IMP, 3, 0},</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v xml:space="preserve">    {"ASL", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v xml:space="preserve">    {"ANC", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -4356,7 +4355,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v xml:space="preserve">    {"ASL", false, AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v xml:space="preserve">    {"SLO", true , AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v xml:space="preserve">    {"BPL", false, AM_REL, 2, 1},</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>18</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>19</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v xml:space="preserve">    {"SLO", true , AM_IIY, 8, 0},</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>20</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v xml:space="preserve">    {"ASL", false, AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>23</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v xml:space="preserve">    {"SLO", true , AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v xml:space="preserve">    {"CLC", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>26</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>27</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v xml:space="preserve">    {"SLO", true , AM_AIY, 7, 0},</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>28</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v xml:space="preserve">    {"ORA", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v xml:space="preserve">    {"ASL", false, AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>31</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v xml:space="preserve">    {"SLO", true , AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v xml:space="preserve">    {"JSR", false, AM_ABA, 6, 0},</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v xml:space="preserve">    {"AND", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>34</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>35</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v xml:space="preserve">    {"RLA", true , AM_IIX, 8, 0},</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>36</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v xml:space="preserve">    {"BIT", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v xml:space="preserve">    {"AND", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v xml:space="preserve">    {"ROL", false, AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>39</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v xml:space="preserve">    {"RLA", true , AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v xml:space="preserve">    {"PLP", false, AM_IMP, 4, 0},</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v xml:space="preserve">    {"AND", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v xml:space="preserve">    {"ROL", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>43</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v xml:space="preserve">    {"ANC", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v xml:space="preserve">    {"BIT", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v xml:space="preserve">    {"AND", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v xml:space="preserve">    {"ROL", false, AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>47</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v xml:space="preserve">    {"RLA", true , AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v xml:space="preserve">    {"BMI", false, AM_REL, 2, 1},</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v xml:space="preserve">    {"AND", false, AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>50</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>51</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v xml:space="preserve">    {"RLA", true , AM_IIY, 8, 0},</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>52</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v xml:space="preserve">    {"AND", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v xml:space="preserve">    {"ROL", false, AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>55</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v xml:space="preserve">    {"RLA", true , AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v xml:space="preserve">    {"SEC", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v xml:space="preserve">    {"AND", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>58</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>59</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v xml:space="preserve">    {"RLA", true , AM_AIY, 7, 0},</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>60</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>61</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v xml:space="preserve">    {"AND", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v xml:space="preserve">    {"ROL", false, AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>63</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v xml:space="preserve">    {"RLA", true , AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v xml:space="preserve">    {"RTI", false, AM_IMP, 6, 0},</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>66</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>67</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v xml:space="preserve">    {"SRE", true , AM_IIX, 8, 0},</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>68</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v xml:space="preserve">    {"LSR", false, AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>71</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v xml:space="preserve">    {"SRE", true , AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v xml:space="preserve">    {"PHA", false, AM_IMP, 3, 0},</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v xml:space="preserve">    {"LSR", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>75</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v xml:space="preserve">    {"ALR", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v xml:space="preserve">    {"JMP", false, AM_ABA, 3, 0},</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
@@ -8828,7 +8827,7 @@
         <v xml:space="preserve">    {"LSR", false, AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>79</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v xml:space="preserve">    {"SRE", true , AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v xml:space="preserve">    {"BVC", false, AM_REL, 2, 1},</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>82</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>83</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v xml:space="preserve">    {"SRE", true , AM_IIY, 8, 0},</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>84</v>
       </c>
@@ -9218,7 +9217,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v xml:space="preserve">    {"LSR", false, AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>87</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v xml:space="preserve">    {"SRE", true , AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v xml:space="preserve">    {"CLI", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>89</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>90</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>91</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v xml:space="preserve">    {"SRE", true , AM_AIY, 7, 0},</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>92</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="89.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v xml:space="preserve">    {"EOR", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v xml:space="preserve">    {"LSR", false, AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="28">
         <v>95</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v xml:space="preserve">    {"SRE", true , AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>98</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>99</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v xml:space="preserve">    {"RRA", true , AM_IIX, 8, 0},</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>100</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v xml:space="preserve">    {"ROR", false, AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>103</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v xml:space="preserve">    {"RRA", true , AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>104</v>
       </c>
@@ -10778,7 +10777,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -10850,7 +10849,7 @@
         <v xml:space="preserve">    {"ROR", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>107</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v xml:space="preserve">    {"ARR", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>108</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v xml:space="preserve">    {"ROR", false, AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>111</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v xml:space="preserve">    {"RRA", true , AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>114</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>115</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v xml:space="preserve">    {"RRA", true , AM_IIY, 8, 0},</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>116</v>
       </c>
@@ -11714,7 +11713,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v xml:space="preserve">    {"ROR", false, AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>119</v>
       </c>
@@ -11856,7 +11855,7 @@
         <v xml:space="preserve">    {"RRA", true , AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -12031,7 +12030,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="28">
         <v>122</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>123</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v xml:space="preserve">    {"RRA", true , AM_AIY, 7, 0},</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>124</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v xml:space="preserve">    {"ADC", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>126</v>
       </c>
@@ -12407,7 +12406,7 @@
         <v xml:space="preserve">    {"ROR", false, AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>127</v>
       </c>
@@ -12468,7 +12467,7 @@
         <v xml:space="preserve">    {"RRA", true , AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>128</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>129</v>
       </c>
@@ -12600,7 +12599,7 @@
         <v xml:space="preserve">    {"STA", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>130</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="28">
         <v>131</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v xml:space="preserve">    {"SAX", true , AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
         <v>132</v>
       </c>
@@ -12793,7 +12792,7 @@
         <v xml:space="preserve">    {"STY", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
         <v>133</v>
       </c>
@@ -12865,7 +12864,7 @@
         <v xml:space="preserve">    {"STA", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
         <v>134</v>
       </c>
@@ -12936,7 +12935,7 @@
         <v xml:space="preserve">    {"STX", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>135</v>
       </c>
@@ -12997,7 +12996,7 @@
         <v xml:space="preserve">    {"SAX", true , AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A138" s="22">
         <v>136</v>
       </c>
@@ -13071,7 +13070,7 @@
         <v xml:space="preserve">    {"DEY", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>137</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
         <v>138</v>
       </c>
@@ -13200,7 +13199,7 @@
         <v xml:space="preserve">    {"TXA", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>139</v>
       </c>
@@ -13261,7 +13260,7 @@
         <v xml:space="preserve">    {"XAA", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A142" s="22">
         <v>140</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v xml:space="preserve">    {"STY", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A143" s="22">
         <v>141</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v xml:space="preserve">    {"STA", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A144" s="22">
         <v>142</v>
       </c>
@@ -13477,7 +13476,7 @@
         <v xml:space="preserve">    {"STX", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>143</v>
       </c>
@@ -13538,7 +13537,7 @@
         <v xml:space="preserve">    {"SAX", true , AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A146" s="22">
         <v>144</v>
       </c>
@@ -13610,7 +13609,7 @@
         <v xml:space="preserve">    {"BCC", false, AM_REL, 2, 1},</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A147" s="22">
         <v>145</v>
       </c>
@@ -13682,7 +13681,7 @@
         <v xml:space="preserve">    {"STA", false, AM_IIY, 6, 0},</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>146</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="32">
         <v>147</v>
       </c>
@@ -13802,7 +13801,7 @@
         <v xml:space="preserve">    {"AHX", true , AM_IIY, 6, 0},</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A150" s="22">
         <v>148</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v xml:space="preserve">    {"STY", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
         <v>149</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v xml:space="preserve">    {"STA", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A152" s="22">
         <v>150</v>
       </c>
@@ -14018,7 +14017,7 @@
         <v xml:space="preserve">    {"STX", false, AM_ZIY, 4, 0},</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>151</v>
       </c>
@@ -14079,7 +14078,7 @@
         <v xml:space="preserve">    {"SAX", true , AM_ZIY, 4, 0},</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A154" s="22">
         <v>152</v>
       </c>
@@ -14147,7 +14146,7 @@
         <v xml:space="preserve">    {"TYA", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A155" s="22">
         <v>153</v>
       </c>
@@ -14219,7 +14218,7 @@
         <v xml:space="preserve">    {"STA", false, AM_AIY, 5, 0},</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A156" s="22">
         <v>154</v>
       </c>
@@ -14282,7 +14281,7 @@
         <v xml:space="preserve">    {"TXS", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="32">
         <v>155</v>
       </c>
@@ -14343,7 +14342,7 @@
         <v xml:space="preserve">    {"TAS", true , AM_AIY, 5, 0},</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="32">
         <v>156</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v xml:space="preserve">    {"SHY", true , AM_AIX, 5, 0},</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A159" s="22">
         <v>157</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v xml:space="preserve">    {"STA", false, AM_AIX, 5, 0},</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="32">
         <v>158</v>
       </c>
@@ -14537,7 +14536,7 @@
         <v xml:space="preserve">    {"SHX", true , AM_AIY, 5, 0},</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="32">
         <v>159</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v xml:space="preserve">    {"AHX", true , AM_AIY, 5, 0},</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
         <v>160</v>
       </c>
@@ -14672,7 +14671,7 @@
         <v xml:space="preserve">    {"LDY", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <v>161</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A164" s="22">
         <v>162</v>
       </c>
@@ -14820,7 +14819,7 @@
         <v xml:space="preserve">    {"LDX", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>163</v>
       </c>
@@ -14881,7 +14880,7 @@
         <v xml:space="preserve">    {"LAX", true , AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A166" s="22">
         <v>164</v>
       </c>
@@ -14956,7 +14955,7 @@
         <v xml:space="preserve">    {"LDY", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A167" s="22">
         <v>165</v>
       </c>
@@ -15031,7 +15030,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <v>166</v>
       </c>
@@ -15106,7 +15105,7 @@
         <v xml:space="preserve">    {"LDX", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="28">
         <v>167</v>
       </c>
@@ -15167,7 +15166,7 @@
         <v xml:space="preserve">    {"LAX", true , AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
         <v>168</v>
       </c>
@@ -15235,7 +15234,7 @@
         <v xml:space="preserve">    {"TAY", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A171" s="22">
         <v>169</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <v>170</v>
       </c>
@@ -15378,7 +15377,7 @@
         <v xml:space="preserve">    {"TAX", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="30">
         <v>171</v>
       </c>
@@ -15439,7 +15438,7 @@
         <v xml:space="preserve">    {"LAX", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A174" s="22">
         <v>172</v>
       </c>
@@ -15514,7 +15513,7 @@
         <v xml:space="preserve">    {"LDY", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
         <v>173</v>
       </c>
@@ -15589,7 +15588,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A176" s="22">
         <v>174</v>
       </c>
@@ -15664,7 +15663,7 @@
         <v xml:space="preserve">    {"LDX", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>175</v>
       </c>
@@ -15728,7 +15727,7 @@
         <v xml:space="preserve">    {"LAX", true , AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <v>176</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v xml:space="preserve">    {"BCS", false, AM_REL, 2, 1},</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A179" s="22">
         <v>177</v>
       </c>
@@ -15878,7 +15877,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>178</v>
       </c>
@@ -15940,7 +15939,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>179</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v xml:space="preserve">    {"LAX", true , AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A182" s="22">
         <v>180</v>
       </c>
@@ -16079,7 +16078,7 @@
         <v xml:space="preserve">    {"LDY", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A183" s="22">
         <v>181</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A184" s="22">
         <v>182</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v xml:space="preserve">    {"LDX", false, AM_ZIY, 4, 0},</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>183</v>
       </c>
@@ -16293,7 +16292,7 @@
         <v xml:space="preserve">    {"LAX", true , AM_ZIY, 4, 0},</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A186" s="22">
         <v>184</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v xml:space="preserve">    {"CLV", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A187" s="22">
         <v>185</v>
       </c>
@@ -16434,7 +16433,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A188" s="22">
         <v>186</v>
       </c>
@@ -16505,7 +16504,7 @@
         <v xml:space="preserve">    {"TSX", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>187</v>
       </c>
@@ -16569,7 +16568,7 @@
         <v xml:space="preserve">    {"LAS", true , AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A190" s="22">
         <v>188</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v xml:space="preserve">    {"LDY", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A191" s="22">
         <v>189</v>
       </c>
@@ -16719,7 +16718,7 @@
         <v xml:space="preserve">    {"LDA", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A192" s="22">
         <v>190</v>
       </c>
@@ -16794,7 +16793,7 @@
         <v xml:space="preserve">    {"LDX", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>191</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v xml:space="preserve">    {"LAX", true , AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A194" s="22">
         <v>192</v>
       </c>
@@ -16934,7 +16933,7 @@
         <v xml:space="preserve">    {"CPY", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A195" s="22">
         <v>193</v>
       </c>
@@ -17011,7 +17010,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="28">
         <v>194</v>
       </c>
@@ -17072,7 +17071,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="28">
         <v>195</v>
       </c>
@@ -17133,7 +17132,7 @@
         <v xml:space="preserve">    {"DCP", true , AM_IIX, 8, 0},</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A198" s="22">
         <v>196</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v xml:space="preserve">    {"CPY", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A199" s="22">
         <v>197</v>
       </c>
@@ -17293,7 +17292,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A200" s="22">
         <v>198</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v xml:space="preserve">    {"DEC", false, AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>199</v>
       </c>
@@ -17429,7 +17428,7 @@
         <v xml:space="preserve">    {"DCP", true , AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A202" s="22">
         <v>200</v>
       </c>
@@ -17504,7 +17503,7 @@
         <v xml:space="preserve">    {"INY", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A203" s="22">
         <v>201</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A204" s="22">
         <v>202</v>
       </c>
@@ -17658,7 +17657,7 @@
         <v xml:space="preserve">    {"DEX", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="28">
         <v>203</v>
       </c>
@@ -17719,7 +17718,7 @@
         <v xml:space="preserve">    {"AXS", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A206" s="22">
         <v>204</v>
       </c>
@@ -17799,7 +17798,7 @@
         <v xml:space="preserve">    {"CPY", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A207" s="22">
         <v>205</v>
       </c>
@@ -17879,7 +17878,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A208" s="22">
         <v>206</v>
       </c>
@@ -17956,7 +17955,7 @@
         <v xml:space="preserve">    {"DEC", false, AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>207</v>
       </c>
@@ -18017,7 +18016,7 @@
         <v xml:space="preserve">    {"DCP", true , AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A210" s="22">
         <v>208</v>
       </c>
@@ -18089,7 +18088,7 @@
         <v xml:space="preserve">    {"BNE", false, AM_REL, 2, 1},</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A211" s="22">
         <v>209</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>210</v>
       </c>
@@ -18228,7 +18227,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>211</v>
       </c>
@@ -18289,7 +18288,7 @@
         <v xml:space="preserve">    {"DCP", true , AM_IIY, 8, 0},</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="28">
         <v>212</v>
       </c>
@@ -18350,7 +18349,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A215" s="22">
         <v>213</v>
       </c>
@@ -18430,7 +18429,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A216" s="22">
         <v>214</v>
       </c>
@@ -18507,7 +18506,7 @@
         <v xml:space="preserve">    {"DEC", false, AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>215</v>
       </c>
@@ -18568,7 +18567,7 @@
         <v xml:space="preserve">    {"DCP", true , AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A218" s="22">
         <v>216</v>
       </c>
@@ -18631,7 +18630,7 @@
         <v xml:space="preserve">    {"CLD", false, AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A219" s="22">
         <v>217</v>
       </c>
@@ -18711,7 +18710,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>218</v>
       </c>
@@ -18772,7 +18771,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>219</v>
       </c>
@@ -18833,7 +18832,7 @@
         <v xml:space="preserve">    {"DCP", true , AM_AIY, 7, 0},</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>220</v>
       </c>
@@ -18894,7 +18893,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A223" s="22">
         <v>221</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v xml:space="preserve">    {"CMP", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A224" s="22">
         <v>222</v>
       </c>
@@ -19051,7 +19050,7 @@
         <v xml:space="preserve">    {"DEC", false, AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>223</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v xml:space="preserve">    {"DCP", true , AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A226" s="22">
         <v>224</v>
       </c>
@@ -19305,7 +19304,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_IIX, 6, 0},</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>226</v>
       </c>
@@ -19366,7 +19365,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>227</v>
       </c>
@@ -19427,7 +19426,7 @@
         <v xml:space="preserve">    {"ISC", true , AM_IIX, 8, 0},</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A230" s="22">
         <v>228</v>
       </c>
@@ -19609,7 +19608,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_ZPG, 3, 0},</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A232" s="22">
         <v>230</v>
       </c>
@@ -19683,7 +19682,7 @@
         <v xml:space="preserve">    {"INC", false, AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="28">
         <v>231</v>
       </c>
@@ -19744,7 +19743,7 @@
         <v xml:space="preserve">    {"ISC", true , AM_ZPG, 5, 0},</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A234" s="22">
         <v>232</v>
       </c>
@@ -19921,7 +19920,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A236" s="22">
         <v>234</v>
       </c>
@@ -20045,7 +20044,7 @@
         <v xml:space="preserve">    {"SBC", true , AM_IMM, 2, 0},</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A238" s="22">
         <v>236</v>
       </c>
@@ -20227,7 +20226,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_ABS, 4, 0},</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A240" s="22">
         <v>238</v>
       </c>
@@ -20304,7 +20303,7 @@
         <v xml:space="preserve">    {"INC", false, AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="28">
         <v>239</v>
       </c>
@@ -20365,7 +20364,7 @@
         <v xml:space="preserve">    {"ISC", true , AM_ABS, 6, 0},</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A242" s="22">
         <v>240</v>
       </c>
@@ -20539,7 +20538,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_IIY, 5, 1},</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="28">
         <v>242</v>
       </c>
@@ -20598,7 +20597,7 @@
         <v xml:space="preserve">    {"KIL", true , AM_IMP, 0, 0},</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="28">
         <v>243</v>
       </c>
@@ -20659,7 +20658,7 @@
         <v xml:space="preserve">    {"ISC", true , AM_IIY, 8, 0},</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="28">
         <v>244</v>
       </c>
@@ -20822,7 +20821,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_ZIX, 4, 0},</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A248" s="22">
         <v>246</v>
       </c>
@@ -20899,7 +20898,7 @@
         <v xml:space="preserve">    {"INC", false, AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="28">
         <v>247</v>
       </c>
@@ -20960,7 +20959,7 @@
         <v xml:space="preserve">    {"ISC", true , AM_ZIX, 6, 0},</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A250" s="22">
         <v>248</v>
       </c>
@@ -21125,7 +21124,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_AIY, 4, 1},</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="28">
         <v>250</v>
       </c>
@@ -21186,7 +21185,7 @@
         <v xml:space="preserve">    {"NOP", true , AM_IMP, 2, 0},</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="28">
         <v>251</v>
       </c>
@@ -21247,7 +21246,7 @@
         <v xml:space="preserve">    {"ISC", true , AM_AIY, 7, 0},</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>252</v>
       </c>
@@ -21410,7 +21409,7 @@
         <v xml:space="preserve">    {"SBC", false, AM_AIX, 4, 1},</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A256" s="22">
         <v>254</v>
       </c>
@@ -21487,7 +21486,7 @@
         <v xml:space="preserve">    {"INC", false, AM_AIX, 7, 0},</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="28">
         <v>255</v>
       </c>
@@ -21549,14 +21548,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S257">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ADC"/>
-        <filter val="SBC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S257"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
